--- a/dzdt_mas_kanal_vs_kanal/28subjektov_iba_dZdtmax.xlsx
+++ b/dzdt_mas_kanal_vs_kanal/28subjektov_iba_dZdtmax.xlsx
@@ -12,10 +12,12 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="9375" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Hárok1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hárok2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hárok3" sheetId="3" r:id="rId3"/>
-    <sheet name="Hárok4" sheetId="4" r:id="rId4"/>
+    <sheet name="vsetky" sheetId="1" r:id="rId1"/>
+    <sheet name="1vs3" sheetId="2" r:id="rId2"/>
+    <sheet name="7vs3" sheetId="3" r:id="rId3"/>
+    <sheet name="15vs3" sheetId="4" r:id="rId4"/>
+    <sheet name="7vs3_reverse" sheetId="5" r:id="rId5"/>
+    <sheet name="15vs3_reverse" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>[]</t>
   </si>
@@ -49,12 +51,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -69,10 +77,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normálne" xfId="0" builtinId="0"/>
@@ -356,7 +367,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A22" sqref="A22:J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1267,8 +1278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29:D29"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1707,18 +1718,22 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="2">
+    <row r="29" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <f>COUNT(A1:A27)</f>
+        <v>14</v>
+      </c>
+      <c r="B29" s="5">
         <f t="shared" ref="B29:E29" si="0">MEDIAN(B1:B27)</f>
         <v>0.6878485612738795</v>
       </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2">
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5">
         <f t="shared" si="0"/>
         <v>0.488471444431407</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="5">
         <f>MEDIAN(F1:F27)</f>
         <v>1.6796100693110801E-3</v>
       </c>
@@ -1733,10 +1748,13 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection sqref="A1:J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1">
@@ -1759,42 +1777,24 @@
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>11</v>
-      </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="1">
-        <v>-9.5840939044662302E-2</v>
-      </c>
+      <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="2">
-        <v>-5.5401409827093399E-2</v>
-      </c>
-      <c r="H2" s="2">
-        <v>2.9905011933662302E-3</v>
-      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>14</v>
-      </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="1">
-        <v>-0.133612084055627</v>
-      </c>
+      <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="2">
-        <v>-0.23620945393036</v>
-      </c>
-      <c r="H3" s="2">
-        <v>4.4357737826602904E-3</v>
-      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -1859,42 +1859,24 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>22</v>
-      </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="1">
-        <v>-0.23932347034786</v>
-      </c>
+      <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="2">
-        <v>-6.9313094418489804E-2</v>
-      </c>
-      <c r="H7" s="2">
-        <v>1.77569038817553E-3</v>
-      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>23</v>
-      </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="1">
-        <v>-0.171700032857801</v>
-      </c>
+      <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="2">
-        <v>-0.158511813793387</v>
-      </c>
-      <c r="H8" s="2">
-        <v>4.2671911531132799E-3</v>
-      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
@@ -1959,82 +1941,46 @@
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>28</v>
-      </c>
       <c r="B12" s="1"/>
-      <c r="C12" s="1">
-        <v>-0.10491161913569</v>
-      </c>
+      <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="2">
-        <v>-6.7911100494958701E-2</v>
-      </c>
-      <c r="H12" s="2">
-        <v>1.7615601738783201E-3</v>
-      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>33</v>
-      </c>
       <c r="B13" s="1"/>
-      <c r="C13" s="1">
-        <v>0.115985366725949</v>
-      </c>
+      <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="2">
-        <v>1.0021098802537501E-2</v>
-      </c>
-      <c r="H13" s="2">
-        <v>4.7586908695201203E-3</v>
-      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>39</v>
-      </c>
       <c r="B14" s="1"/>
-      <c r="C14" s="1">
-        <v>-0.220962163078711</v>
-      </c>
+      <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="2">
-        <v>-4.0915339775399497E-2</v>
-      </c>
-      <c r="H14" s="2">
-        <v>2.5090490191858501E-3</v>
-      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>41</v>
-      </c>
       <c r="B15" s="1"/>
-      <c r="C15" s="1">
-        <v>-0.67272418298167103</v>
-      </c>
+      <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="2">
-        <v>-0.28093042671538898</v>
-      </c>
-      <c r="H15" s="2">
-        <v>2.70162360337583E-3</v>
-      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
@@ -2099,22 +2045,13 @@
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>99</v>
-      </c>
       <c r="B19" s="1"/>
-      <c r="C19" s="1">
-        <v>6.0457671192803E-2</v>
-      </c>
+      <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="2">
-        <v>2.2181776111376499E-2</v>
-      </c>
-      <c r="H19" s="2">
-        <v>2.0247434028250202E-3</v>
-      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
@@ -2159,22 +2096,13 @@
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>111</v>
-      </c>
       <c r="B22" s="1"/>
-      <c r="C22" s="1">
-        <v>-0.29833994879734099</v>
-      </c>
+      <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="2">
-        <v>-0.13026453229704099</v>
-      </c>
-      <c r="H22" s="2">
-        <v>1.47485553289363E-3</v>
-      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
@@ -2199,22 +2127,13 @@
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>117</v>
-      </c>
       <c r="B24" s="1"/>
-      <c r="C24" s="1">
-        <v>0.11264073145886</v>
-      </c>
+      <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="2">
-        <v>0.100449958423836</v>
-      </c>
-      <c r="H24" s="2">
-        <v>2.3538312395187701E-3</v>
-      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
@@ -2239,22 +2158,13 @@
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>136</v>
-      </c>
       <c r="B26" s="1"/>
-      <c r="C26" s="1">
-        <v>-0.40721895595881002</v>
-      </c>
+      <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="2">
-        <v>-5.3819567978211497E-2</v>
-      </c>
-      <c r="H26" s="2">
-        <v>1.1117223913730599E-3</v>
-      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
@@ -2278,25 +2188,29 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1">
-        <v>0.22417931831115001</v>
-      </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2">
-        <v>9.8623868105500501E-2</v>
-      </c>
-      <c r="H28" s="2">
-        <v>2.4173405302459899E-3</v>
-      </c>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
+    <row r="28" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <f>COUNT(A1:A27)</f>
+        <v>15</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="5">
+        <f t="shared" ref="C28:G28" si="0">MEDIAN(C1:C27)</f>
+        <v>0.67563156182026096</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5">
+        <f t="shared" si="0"/>
+        <v>0.62616656419105798</v>
+      </c>
+      <c r="H28" s="5">
+        <f>MEDIAN(H1:H27)</f>
+        <v>9.65804449893897E-4</v>
+      </c>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2308,7 +2222,756 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection sqref="A1:J27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1">
+        <v>0.38483462055763401</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2">
+        <v>5.8975220122874601E-2</v>
+      </c>
+      <c r="J2" s="2">
+        <v>2.6540057631082498E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1">
+        <v>0.445940332032705</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2">
+        <v>0.17740565370359701</v>
+      </c>
+      <c r="J3" s="2">
+        <v>3.3018008817586701E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1">
+        <v>0.37317908692166601</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2">
+        <v>0.33056116410514602</v>
+      </c>
+      <c r="J4" s="2">
+        <v>3.2444472862175901E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1">
+        <v>0.41399040916706598</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2">
+        <v>9.4322597546889295E-3</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1.56059253894009E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>109</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1">
+        <v>0.97567040404205196</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2">
+        <v>5.4727434377576302E-2</v>
+      </c>
+      <c r="J20" s="2">
+        <v>3.79642517485322E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>111</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1">
+        <v>0.64671089488299904</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2">
+        <v>2.6677862427839202E-2</v>
+      </c>
+      <c r="J22" s="2">
+        <v>1.1538070026628701E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1">
+        <v>-0.23932347034786</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2">
+        <v>-6.9313094418489804E-2</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1.77569038817553E-3</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>39</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1">
+        <v>-0.220962163078711</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2">
+        <v>-4.0915339775399497E-2</v>
+      </c>
+      <c r="H14" s="2">
+        <v>2.5090490191858501E-3</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>41</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1">
+        <v>-0.67272418298167103</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2">
+        <v>-0.28093042671538898</v>
+      </c>
+      <c r="H15" s="2">
+        <v>2.70162360337583E-3</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>111</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1">
+        <v>-0.29833994879734099</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2">
+        <v>-0.13026453229704099</v>
+      </c>
+      <c r="H22" s="2">
+        <v>1.47485553289363E-3</v>
+      </c>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>136</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1">
+        <v>-0.40721895595881002</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2">
+        <v>-5.3819567978211497E-2</v>
+      </c>
+      <c r="H26" s="2">
+        <v>1.1117223913730599E-3</v>
+      </c>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f>COUNT(A5:A26)</f>
+        <v>5</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2317,27 +2980,15 @@
       <c r="A1">
         <v>10</v>
       </c>
-      <c r="B1" s="1">
-        <v>-0.85347331228353596</v>
-      </c>
-      <c r="C1" s="1">
-        <v>0.72447804601347099</v>
-      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
       <c r="D1" s="1">
         <v>-0.48470383747118501</v>
       </c>
-      <c r="E1" s="2">
-        <v>-1.0892353101685599</v>
-      </c>
-      <c r="F1" s="2">
-        <v>5.6796239536220103E-3</v>
-      </c>
-      <c r="G1" s="2">
-        <v>1.5454500136588001</v>
-      </c>
-      <c r="H1" s="2">
-        <v>-1.43088431373726E-3</v>
-      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
       <c r="I1" s="2">
         <v>-0.32200714830647198</v>
       </c>
@@ -2346,126 +2997,51 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>11</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0.65929623204593202</v>
-      </c>
-      <c r="C2" s="1">
-        <v>-9.5840939044662302E-2</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.38483462055763401</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0.44189007543561099</v>
-      </c>
-      <c r="F2" s="2">
-        <v>1.89518435371467E-3</v>
-      </c>
-      <c r="G2" s="2">
-        <v>-5.5401409827093399E-2</v>
-      </c>
-      <c r="H2" s="2">
-        <v>2.9905011933662302E-3</v>
-      </c>
-      <c r="I2" s="2">
-        <v>5.8975220122874601E-2</v>
-      </c>
-      <c r="J2" s="2">
-        <v>2.6540057631082498E-3</v>
-      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>14</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0.80827535313205101</v>
-      </c>
-      <c r="C3" s="1">
-        <v>-0.133612084055627</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.445940332032705</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.78549241368330902</v>
-      </c>
-      <c r="F3" s="2">
-        <v>6.6432157019554003E-4</v>
-      </c>
-      <c r="G3" s="2">
-        <v>-0.23620945393036</v>
-      </c>
-      <c r="H3" s="2">
-        <v>4.4357737826602904E-3</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0.17740565370359701</v>
-      </c>
-      <c r="J3" s="2">
-        <v>3.3018008817586701E-3</v>
-      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>15</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0.63952894837975205</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.30768125143119601</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.37317908692166601</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.49324913207156201</v>
-      </c>
-      <c r="F4" s="2">
-        <v>2.59464093762219E-3</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0.49387367677549499</v>
-      </c>
-      <c r="H4" s="2">
-        <v>3.3703469862096098E-3</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0.33056116410514602</v>
-      </c>
-      <c r="J4" s="2">
-        <v>3.2444472862175901E-3</v>
-      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>18</v>
       </c>
-      <c r="B5" s="1">
-        <v>0.216405140525986</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.73229557395042399</v>
-      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>-0.291801317058343</v>
       </c>
-      <c r="E5" s="2">
-        <v>0.35897630407193298</v>
-      </c>
-      <c r="F5" s="2">
-        <v>2.65074329348563E-3</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0.290455211542544</v>
-      </c>
-      <c r="H5" s="2">
-        <v>1.6635128139087501E-3</v>
-      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
       <c r="I5" s="2">
         <v>-2.1400513046480499E-2</v>
       </c>
@@ -2477,27 +3053,15 @@
       <c r="A6">
         <v>20</v>
       </c>
-      <c r="B6" s="1">
-        <v>0.87853906726794195</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.55517500615242699</v>
-      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
       <c r="D6" s="1">
         <v>-2.42509172355353E-2</v>
       </c>
-      <c r="E6" s="2">
-        <v>1.0980118355414801</v>
-      </c>
-      <c r="F6" s="2">
-        <v>4.7994328461125197E-4</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0.78260729657758099</v>
-      </c>
-      <c r="H6" s="2">
-        <v>9.2778249503999201E-4</v>
-      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
       <c r="I6" s="2">
         <v>-4.4706798393656403E-3</v>
       </c>
@@ -2509,27 +3073,15 @@
       <c r="A7">
         <v>22</v>
       </c>
-      <c r="B7" s="1">
-        <v>0.63822144575627204</v>
-      </c>
-      <c r="C7" s="1">
-        <v>-0.23932347034786</v>
-      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
       <c r="D7" s="1">
         <v>0.41399040916706598</v>
       </c>
-      <c r="E7" s="2">
-        <v>0.516611275617883</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1.0026307296775001E-3</v>
-      </c>
-      <c r="G7" s="2">
-        <v>-6.9313094418489804E-2</v>
-      </c>
-      <c r="H7" s="2">
-        <v>1.77569038817553E-3</v>
-      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
       <c r="I7" s="2">
         <v>9.4322597546889295E-3</v>
       </c>
@@ -2541,27 +3093,15 @@
       <c r="A8">
         <v>23</v>
       </c>
-      <c r="B8" s="1">
-        <v>-0.34258753589663099</v>
-      </c>
-      <c r="C8" s="1">
-        <v>-0.171700032857801</v>
-      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
       <c r="D8" s="1">
         <v>-0.41590240488623598</v>
       </c>
-      <c r="E8" s="2">
-        <v>-0.246077022075744</v>
-      </c>
-      <c r="F8" s="2">
-        <v>4.2918312125670502E-3</v>
-      </c>
-      <c r="G8" s="2">
-        <v>-0.158511813793387</v>
-      </c>
-      <c r="H8" s="2">
-        <v>4.2671911531132799E-3</v>
-      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
       <c r="I8" s="2">
         <v>-5.5101674759273099E-2</v>
       </c>
@@ -2573,27 +3113,15 @@
       <c r="A9">
         <v>24</v>
       </c>
-      <c r="B9" s="1">
-        <v>-9.0771288907613101E-2</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.47394180765487598</v>
-      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
       <c r="D9" s="1">
         <v>-0.23515227388353499</v>
       </c>
-      <c r="E9" s="2">
-        <v>-4.8554306470086003E-2</v>
-      </c>
-      <c r="F9" s="2">
-        <v>2.1646001345768302E-3</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0.52344259138460703</v>
-      </c>
-      <c r="H9" s="2">
-        <v>9.8069553669348909E-4</v>
-      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
       <c r="I9" s="2">
         <v>-1.88388975265853E-2</v>
       </c>
@@ -2605,27 +3133,15 @@
       <c r="A10">
         <v>26</v>
       </c>
-      <c r="B10" s="1">
-        <v>0.64898046523397701</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0.712781111875046</v>
-      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
       <c r="D10" s="1">
         <v>-0.27031787271983498</v>
       </c>
-      <c r="E10" s="2">
-        <v>0.280918142730613</v>
-      </c>
-      <c r="F10" s="2">
-        <v>1.08767126842132E-3</v>
-      </c>
-      <c r="G10" s="2">
-        <v>1.04977299911217</v>
-      </c>
-      <c r="H10" s="2">
-        <v>-7.8933859997402196E-4</v>
-      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
       <c r="I10" s="2">
         <v>-1.18376561567067E-2</v>
       </c>
@@ -2637,27 +3153,15 @@
       <c r="A11">
         <v>27</v>
       </c>
-      <c r="B11" s="1">
-        <v>-0.17241135636096</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0.74422015866352897</v>
-      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
       <c r="D11" s="1">
         <v>-0.53959420876316699</v>
       </c>
-      <c r="E11" s="2">
-        <v>-9.3178493576137306E-2</v>
-      </c>
-      <c r="F11" s="2">
-        <v>4.5737838532544702E-3</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0.90365475060553502</v>
-      </c>
-      <c r="H11" s="2">
-        <v>2.27217924309087E-3</v>
-      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
       <c r="I11" s="2">
         <v>-3.3365359857363101E-2</v>
       </c>
@@ -2669,27 +3173,15 @@
       <c r="A12">
         <v>28</v>
       </c>
-      <c r="B12" s="1">
-        <v>-0.58306328770442495</v>
-      </c>
-      <c r="C12" s="1">
-        <v>-0.10491161913569</v>
-      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
       <c r="D12" s="1">
         <v>-0.49958005878488099</v>
       </c>
-      <c r="E12" s="2">
-        <v>-0.19534812687184</v>
-      </c>
-      <c r="F12" s="2">
-        <v>2.0136863033327502E-3</v>
-      </c>
-      <c r="G12" s="2">
-        <v>-6.7911100494958701E-2</v>
-      </c>
-      <c r="H12" s="2">
-        <v>1.7615601738783201E-3</v>
-      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
       <c r="I12" s="2">
         <v>-3.3351726647741602E-2</v>
       </c>
@@ -2701,27 +3193,15 @@
       <c r="A13">
         <v>33</v>
       </c>
-      <c r="B13" s="1">
-        <v>0.22313748851239101</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0.115985366725949</v>
-      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
       <c r="D13" s="1">
         <v>-0.30183684122356802</v>
       </c>
-      <c r="E13" s="2">
-        <v>4.9424619867749098E-2</v>
-      </c>
-      <c r="F13" s="2">
-        <v>4.6586839653438199E-3</v>
-      </c>
-      <c r="G13" s="2">
-        <v>1.0021098802537501E-2</v>
-      </c>
-      <c r="H13" s="2">
-        <v>4.7586908695201203E-3</v>
-      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
       <c r="I13" s="2">
         <v>-1.37057335971197E-2</v>
       </c>
@@ -2733,27 +3213,15 @@
       <c r="A14">
         <v>39</v>
       </c>
-      <c r="B14" s="1">
-        <v>-0.39241905256597998</v>
-      </c>
-      <c r="C14" s="1">
-        <v>-0.220962163078711</v>
-      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
       <c r="D14" s="1">
         <v>-0.602498837081893</v>
       </c>
-      <c r="E14" s="2">
-        <v>-0.17998537444984999</v>
-      </c>
-      <c r="F14" s="2">
-        <v>3.14797719382947E-3</v>
-      </c>
-      <c r="G14" s="2">
-        <v>-4.0915339775399497E-2</v>
-      </c>
-      <c r="H14" s="2">
-        <v>2.5090490191858501E-3</v>
-      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
       <c r="I14" s="2">
         <v>-1.19140490987304E-2</v>
       </c>
@@ -2765,27 +3233,15 @@
       <c r="A15">
         <v>41</v>
       </c>
-      <c r="B15" s="1">
-        <v>-0.71281266914591501</v>
-      </c>
-      <c r="C15" s="1">
-        <v>-0.67272418298167103</v>
-      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
       <c r="D15" s="1">
         <v>-0.40876405352961598</v>
       </c>
-      <c r="E15" s="2">
-        <v>-0.47247092108380101</v>
-      </c>
-      <c r="F15" s="2">
-        <v>3.0071421553943402E-3</v>
-      </c>
-      <c r="G15" s="2">
-        <v>-0.28093042671538898</v>
-      </c>
-      <c r="H15" s="2">
-        <v>2.70162360337583E-3</v>
-      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
       <c r="I15" s="2">
         <v>-1.55508814929131E-2</v>
       </c>
@@ -2794,62 +3250,29 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>59</v>
-      </c>
-      <c r="B16" s="1">
-        <v>0.85913979917433103</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0.71331761544398697</v>
-      </c>
-      <c r="D16" s="1">
-        <v>-0.19705276577299699</v>
-      </c>
-      <c r="E16" s="2">
-        <v>1.2101875408934399</v>
-      </c>
-      <c r="F16" s="2">
-        <v>-4.2384677401919099E-4</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0.65367786052477295</v>
-      </c>
-      <c r="H16" s="2">
-        <v>3.1929567903758001E-5</v>
-      </c>
-      <c r="I16" s="2">
-        <v>-1.4713016695024801E-2</v>
-      </c>
-      <c r="J16" s="2">
-        <v>1.8092040383262901E-3</v>
-      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>74</v>
       </c>
-      <c r="B17" s="1">
-        <v>0.64731691397646995</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0.67563156182026096</v>
-      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
       <c r="D17" s="1">
         <v>-0.76093089114832202</v>
       </c>
-      <c r="E17" s="2">
-        <v>0.326881463496216</v>
-      </c>
-      <c r="F17" s="2">
-        <v>3.2747449283484198E-3</v>
-      </c>
-      <c r="G17" s="2">
-        <v>1.26854363662315</v>
-      </c>
-      <c r="H17" s="2">
-        <v>-1.1762555404715399E-4</v>
-      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
       <c r="I17" s="2">
         <v>-4.7939861985801802E-2</v>
       </c>
@@ -2861,27 +3284,15 @@
       <c r="A18">
         <v>88</v>
       </c>
-      <c r="B18" s="1">
-        <v>-4.3567357838327402E-2</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0.28906286693736</v>
-      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
       <c r="D18" s="1">
         <v>-0.85849946882195205</v>
       </c>
-      <c r="E18" s="2">
-        <v>-1.1192864562766001E-2</v>
-      </c>
-      <c r="F18" s="2">
-        <v>1.9911287731525099E-3</v>
-      </c>
-      <c r="G18" s="2">
-        <v>0.192123699750268</v>
-      </c>
-      <c r="H18" s="2">
-        <v>1.38828244595547E-3</v>
-      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
       <c r="I18" s="2">
         <v>-5.9672711632383198E-2</v>
       </c>
@@ -2893,27 +3304,15 @@
       <c r="A19">
         <v>99</v>
       </c>
-      <c r="B19" s="1">
-        <v>-0.25778079234451201</v>
-      </c>
-      <c r="C19" s="1">
-        <v>6.0457671192803E-2</v>
-      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
       <c r="D19" s="1">
         <v>-0.70659523208894204</v>
       </c>
-      <c r="E19" s="2">
-        <v>-0.26771864760557301</v>
-      </c>
-      <c r="F19" s="2">
-        <v>2.4084150578671999E-3</v>
-      </c>
-      <c r="G19" s="2">
-        <v>2.2181776111376499E-2</v>
-      </c>
-      <c r="H19" s="2">
-        <v>2.0247434028250202E-3</v>
-      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
       <c r="I19" s="2">
         <v>-9.0427217716084501E-2</v>
       </c>
@@ -2922,62 +3321,29 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>109</v>
-      </c>
-      <c r="B20" s="1">
-        <v>0.96131023894571099</v>
-      </c>
-      <c r="C20" s="1">
-        <v>0.983422594204312</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0.97567040404205196</v>
-      </c>
-      <c r="E20" s="2">
-        <v>0.51446070970385904</v>
-      </c>
-      <c r="F20" s="2">
-        <v>3.1492191833627798E-3</v>
-      </c>
-      <c r="G20" s="2">
-        <v>5.5683488033769601E-2</v>
-      </c>
-      <c r="H20" s="2">
-        <v>3.7797853861819002E-3</v>
-      </c>
-      <c r="I20" s="2">
-        <v>5.4727434377576302E-2</v>
-      </c>
-      <c r="J20" s="2">
-        <v>3.79642517485322E-3</v>
-      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>110</v>
       </c>
-      <c r="B21" s="1">
-        <v>0.76385992619177601</v>
-      </c>
-      <c r="C21" s="1">
-        <v>0.40581177862972301</v>
-      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
       <c r="D21" s="1">
         <v>-0.59850613077994597</v>
       </c>
-      <c r="E21" s="2">
-        <v>0.16628765061798301</v>
-      </c>
-      <c r="F21" s="2">
-        <v>1.5867836682680501E-3</v>
-      </c>
-      <c r="G21" s="2">
-        <v>0.27691234312503998</v>
-      </c>
-      <c r="H21" s="2">
-        <v>1.3289566992338599E-3</v>
-      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
       <c r="I21" s="2">
         <v>-2.3744966190270399E-2</v>
       </c>
@@ -2986,62 +3352,29 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>111</v>
-      </c>
-      <c r="B22" s="1">
-        <v>0.12501430976445199</v>
-      </c>
-      <c r="C22" s="1">
-        <v>-0.29833994879734099</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0.64671089488299904</v>
-      </c>
-      <c r="E22" s="2">
-        <v>9.1169772900538803E-3</v>
-      </c>
-      <c r="F22" s="2">
-        <v>1.2110157818165999E-3</v>
-      </c>
-      <c r="G22" s="2">
-        <v>-0.13026453229704099</v>
-      </c>
-      <c r="H22" s="2">
-        <v>1.47485553289363E-3</v>
-      </c>
-      <c r="I22" s="2">
-        <v>2.6677862427839202E-2</v>
-      </c>
-      <c r="J22" s="2">
-        <v>1.1538070026628701E-3</v>
-      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>112</v>
       </c>
-      <c r="B23" s="1">
-        <v>-9.98394620149511E-2</v>
-      </c>
-      <c r="C23" s="1">
-        <v>0.580090621746994</v>
-      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
       <c r="D23" s="1">
         <v>-0.80223566698731796</v>
       </c>
-      <c r="E23" s="2">
-        <v>-6.4043058151872403E-2</v>
-      </c>
-      <c r="F23" s="2">
-        <v>1.9415789048848201E-3</v>
-      </c>
-      <c r="G23" s="2">
-        <v>0.62616656419105798</v>
-      </c>
-      <c r="H23" s="2">
-        <v>3.3980700598420301E-4</v>
-      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
       <c r="I23" s="2">
         <v>-4.2209247670840201E-2</v>
       </c>
@@ -3050,164 +3383,72 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>117</v>
-      </c>
-      <c r="B24" s="1">
-        <v>0.71640089050182698</v>
-      </c>
-      <c r="C24" s="1">
-        <v>0.11264073145886</v>
-      </c>
-      <c r="D24" s="1">
-        <v>-6.6876022336251298E-2</v>
-      </c>
-      <c r="E24" s="2">
-        <v>0.48369375679125198</v>
-      </c>
-      <c r="F24" s="2">
-        <v>1.7724364703541101E-3</v>
-      </c>
-      <c r="G24" s="2">
-        <v>0.100449958423836</v>
-      </c>
-      <c r="H24" s="2">
-        <v>2.3538312395187701E-3</v>
-      </c>
-      <c r="I24" s="2">
-        <v>-7.5464806205028101E-3</v>
-      </c>
-      <c r="J24" s="2">
-        <v>2.6888622782432199E-3</v>
-      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>135</v>
-      </c>
-      <c r="B25" s="1">
-        <v>-6.4985844488496494E-2</v>
-      </c>
-      <c r="C25" s="1">
-        <v>0.65336715131009904</v>
-      </c>
-      <c r="D25" s="1">
-        <v>0.172823903067503</v>
-      </c>
-      <c r="E25" s="2">
-        <v>-4.2113261542493001E-2</v>
-      </c>
-      <c r="F25" s="2">
-        <v>1.68924282371052E-3</v>
-      </c>
-      <c r="G25" s="2">
-        <v>0.250645958983991</v>
-      </c>
-      <c r="H25" s="2">
-        <v>9.65804449893897E-4</v>
-      </c>
-      <c r="I25" s="2">
-        <v>1.3642330023954799E-2</v>
-      </c>
-      <c r="J25" s="2">
-        <v>1.5311243315959599E-3</v>
-      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>136</v>
-      </c>
-      <c r="B26" s="1">
-        <v>-0.15143977219593299</v>
-      </c>
-      <c r="C26" s="1">
-        <v>-0.40721895595881002</v>
-      </c>
-      <c r="D26" s="1">
-        <v>8.6152909999824695E-2</v>
-      </c>
-      <c r="E26" s="2">
-        <v>-1.6152033429026099E-2</v>
-      </c>
-      <c r="F26" s="2">
-        <v>1.0235733542363599E-3</v>
-      </c>
-      <c r="G26" s="2">
-        <v>-5.3819567978211497E-2</v>
-      </c>
-      <c r="H26" s="2">
-        <v>1.1117223913730599E-3</v>
-      </c>
-      <c r="I26" s="2">
-        <v>2.4165760532770999E-3</v>
-      </c>
-      <c r="J26" s="2">
-        <v>1.00685717267358E-3</v>
-      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>139</v>
-      </c>
-      <c r="B27" s="1">
-        <v>0.89340296336346503</v>
-      </c>
-      <c r="C27" s="1">
-        <v>0.94162100674941296</v>
-      </c>
+        <f>COUNT(A1:A23)</f>
+        <v>17</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
       <c r="D27" s="1">
-        <v>-0.70703809664894901</v>
-      </c>
-      <c r="E27" s="2">
-        <v>1.4596320838468499</v>
-      </c>
-      <c r="F27" s="2">
-        <v>-1.78298076857897E-3</v>
-      </c>
-      <c r="G27" s="2">
-        <v>1.58252735405284</v>
-      </c>
-      <c r="H27" s="2">
-        <v>1.5977261353906501E-4</v>
-      </c>
+        <f>MEDIAN(D1:D23)</f>
+        <v>-0.48470383747118501</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
       <c r="I27" s="2">
-        <v>-9.0948345802568595E-2</v>
+        <f t="shared" ref="E27:J27" si="0">MEDIAN(I1:I23)</f>
+        <v>-2.3744966190270399E-2</v>
       </c>
       <c r="J27" s="2">
-        <v>2.9236825097945398E-3</v>
+        <f t="shared" si="0"/>
+        <v>2.32570452426412E-3</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="1">
-        <v>0.30895528210395901</v>
-      </c>
-      <c r="C28" s="1">
-        <v>0.22417931831115001</v>
-      </c>
-      <c r="D28" s="1">
-        <v>0.20234069835746499</v>
-      </c>
-      <c r="E28" s="2">
-        <v>0.36024980108739901</v>
-      </c>
-      <c r="F28" s="2">
-        <v>1.9043557687025399E-3</v>
-      </c>
-      <c r="G28" s="2">
-        <v>9.8623868105500501E-2</v>
-      </c>
-      <c r="H28" s="2">
-        <v>2.4173405302459899E-3</v>
-      </c>
-      <c r="I28" s="2">
-        <v>8.3307017687734602E-2</v>
-      </c>
-      <c r="J28" s="2">
-        <v>2.4452906578930401E-3</v>
-      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
